--- a/data/balance_sheet/3digits/total/631_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/631_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>631-Data processing, hosting and related activities; web portals</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>631-Data processing, hosting and related activities; web portals</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>151079.92319</v>
@@ -1493,29 +943,34 @@
         <v>335322.32394</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>413615.1565800001</v>
+        <v>418959.7067</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>513262.89474</v>
+        <v>522026.0891</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>705608.7745299999</v>
+        <v>707255.8625299999</v>
       </c>
       <c r="K5" s="32" t="n">
-        <v>873695.2006600001</v>
+        <v>873695.20066</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>2187100.08902</v>
+        <v>2187915.50112</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>3046318.08197</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>2806442.66476</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>4046902.285</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>30120.88612</v>
@@ -1524,7 +979,7 @@
         <v>50483.80607</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>63344.51584</v>
+        <v>63344.51583999999</v>
       </c>
       <c r="F6" s="33" t="n">
         <v>90795.52416</v>
@@ -1533,32 +988,37 @@
         <v>112954.90014</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>108194.26109</v>
+        <v>108819.01467</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>132449.66519</v>
+        <v>132889.81641</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>214821.68521</v>
+        <v>215202.90538</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>240550.89461</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>592163.4029499999</v>
+        <v>592358.8266800001</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>899387.1469799998</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>900498.5192099999</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>1169941.69</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>5064.78289</v>
+        <v>5064.782889999999</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>8779.805179999999</v>
@@ -1567,35 +1027,40 @@
         <v>6481.910970000001</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>6891.123720000001</v>
+        <v>6891.12372</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>11413.38373</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>15987.33889</v>
+        <v>16068.62292</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>18624.80809</v>
+        <v>18631.13736</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>21701.55564</v>
+        <v>21827.68848</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>22954.98054</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>21545.2238</v>
+        <v>21679.14239</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>28047.99371</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>28456.64233</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>43732.416</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>2031.78103</v>
@@ -1622,60 +1087,70 @@
         <v>5228.0524</v>
       </c>
       <c r="K8" s="22" t="n">
-        <v>6362.40502</v>
+        <v>6362.405019999999</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>9030.93908</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>16646.00518</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>16741.90016</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>7659.128</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>21340.0026</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>34565.50287999999</v>
+        <v>34565.50288</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>47032.58948999999</v>
+        <v>47032.58949</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>72871.08356999999</v>
+        <v>72871.08357</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>85047.21081999999</v>
+        <v>85047.21082000001</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>78456.52911</v>
+        <v>78999.99866</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>100573.59725</v>
+        <v>101007.4192</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>173587.32271</v>
+        <v>173630.75071</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>196844.14853</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>473575.56316</v>
+        <v>473637.0682999999</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>769179.77393</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>769786.08816</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>982855.304</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1110.1294</v>
@@ -1696,10 +1171,10 @@
         <v>5980.351769999999</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>6302.546530000001</v>
+        <v>6302.54653</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>569.4027100000001</v>
+        <v>569.40271</v>
       </c>
       <c r="K10" s="22" t="n">
         <v>5168.13193</v>
@@ -1708,14 +1183,19 @@
         <v>1208.13601</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>4885.793449999999</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>4885.79345</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>6305.685</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>2794.449</v>
@@ -1739,23 +1219,28 @@
         <v>14996.62763</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>14874.15717</v>
+        <v>15085.8165</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>19557.49245</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>89219.81292</v>
+        <v>89219.81291999998</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>90399.16760999999</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>90399.68200999999</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>142000.527</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>11328.61382</v>
@@ -1788,14 +1273,19 @@
         <v>20368.09181</v>
       </c>
       <c r="M12" s="23" t="n">
-        <v>41293.78140000001</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+        <v>41293.7814</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>375726.298</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>11218.98162</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>332420.477</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>266.80451</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>23616.05433</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>8659.370000000001</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>10841.2112</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>2975.16192</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>416.251</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>220.59811</v>
@@ -1927,7 +1432,7 @@
         <v>786.4621099999999</v>
       </c>
       <c r="F16" s="21" t="n">
-        <v>872.99263</v>
+        <v>872.9926300000001</v>
       </c>
       <c r="G16" s="22" t="n">
         <v>1761.74745</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>3483.58353</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>34230.2</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>65599.64032000001</v>
@@ -2007,44 +1522,49 @@
         <v>76058.01647</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>92941.09219000001</v>
+        <v>92941.09219</v>
       </c>
       <c r="G18" s="23" t="n">
         <v>125432.2464</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>161909.46626</v>
+        <v>164355.19094</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>210243.0146699999</v>
+        <v>212599.51083</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>271377.40572</v>
+        <v>271519.4072200001</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>311644.52631</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>812308.7289400001</v>
+        <v>812749.9806900001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>1085851.06388</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>1092395.45382</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>1443359.997</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>60616.65637</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>52571.82681000001</v>
+        <v>52571.82680999999</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>73616.48830999999</v>
+        <v>73616.48831</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>90577.87368999999</v>
@@ -2053,29 +1573,34 @@
         <v>114446.99581</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>151258.48919</v>
+        <v>153698.51598</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>193780.91057</v>
+        <v>196128.63051</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>247415.48119</v>
+        <v>247536.6572</v>
       </c>
       <c r="K19" s="22" t="n">
-        <v>290215.11948</v>
+        <v>290215.1194799999</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>750554.6883800001</v>
+        <v>750925.9389900001</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>1051166.66577</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>1057010.50222</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>1384028.319</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>2983.18275</v>
@@ -2096,26 +1621,31 @@
         <v>7421.461490000001</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>8873.866860000002</v>
+        <v>8873.86686</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>12392.01313</v>
+        <v>12412.53313</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>10613.4347</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>31315.06795</v>
+        <v>31385.06909</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>22172.29491</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>22242.29605</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>32170.524</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>12.2298</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>919.3546000000001</v>
@@ -2213,35 +1753,40 @@
         <v>607.58136</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>2082.05</v>
+        <v>2087.74789</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>5188.31187</v>
+        <v>5197.088090000001</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>3302.56695</v>
+        <v>3302.87244</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>3295.87753</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>4167.268029999999</v>
+        <v>4167.26803</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>5082.79896</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>5712.798960000001</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>9789.459000000001</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>942.55342</v>
       </c>
       <c r="D24" s="22" t="n">
-        <v>724.5212899999999</v>
+        <v>724.52129</v>
       </c>
       <c r="E24" s="22" t="n">
         <v>43.3513</v>
@@ -2259,7 +1804,7 @@
         <v>1481.04924</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>7582.28447</v>
+        <v>7582.284469999999</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>6347.41799</v>
@@ -2268,14 +1813,19 @@
         <v>24173.3884</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3284.19977</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>3284.75212</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>13665.464</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1692.11827</v>
@@ -2305,17 +1855,22 @@
         <v>10215.10509</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>40941.27354</v>
+        <v>40941.27353999999</v>
       </c>
       <c r="M25" s="22" t="n">
         <v>53319.02158</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>53685.261</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>1554.22509</v>
@@ -2333,7 +1888,7 @@
         <v>2727.43116</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>4683.288380000001</v>
+        <v>4683.28838</v>
       </c>
       <c r="I26" s="22" t="n">
         <v>6148.45417</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>49161.68731</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>49979.03</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>6760.36782</v>
@@ -2373,29 +1933,34 @@
         <v>28937.75932</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>45125.9214</v>
+        <v>45168.10628</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>59573.6988</v>
+        <v>63584.51798999999</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>58487.93098</v>
+        <v>58496.01586</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>80565.17243000001</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>123505.29481</v>
+        <v>123509.1295</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>141871.65155</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>142091.50795</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>230222.211</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>4492.5525</v>
@@ -2416,26 +1981,31 @@
         <v>30169.52631</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>42494.75040999999</v>
+        <v>45805.51454</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>42289.50461</v>
+        <v>42289.50462</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>58992.27543</v>
+        <v>58992.27543000001</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>80191.80473</v>
+        <v>80191.80473999999</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>102357.86213</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>102506.92991</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>180885.541</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>120.96911</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>1485.53042</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>4072.151</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>9.168530000000001</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>16202.97468</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>16396.254</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>32.72892</v>
@@ -2550,18 +2130,23 @@
       <c r="M31" s="22" t="n">
         <v>624.6040899999999</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>2830.423</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>2104.94876</v>
       </c>
       <c r="D32" s="22" t="n">
-        <v>998.5980199999999</v>
+        <v>998.5980200000001</v>
       </c>
       <c r="E32" s="22" t="n">
         <v>2028.14729</v>
@@ -2573,29 +2158,34 @@
         <v>3714.32693</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>5550.22192</v>
+        <v>5592.4068</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>5468.26125</v>
+        <v>6168.31631</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>12459.60114</v>
+        <v>12467.68601</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>10864.73859</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>39665.83893999999</v>
+        <v>39669.67361999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>21200.68023000001</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>21271.46885</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>26037.842</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>2.19268</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>2.19268</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>22761.80989</v>
@@ -2733,29 +2338,34 @@
         <v>33250.95315</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>49423.74823999999</v>
+        <v>49940.80141</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>48835.31427</v>
+        <v>49681.52928</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>85860.5135</v>
+        <v>86760.15689</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>126088.66513</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>251568.25931</v>
+        <v>251636.72978</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>530111.50723</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>278473.15136</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>365826.323</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>5872.60441</v>
@@ -2776,7 +2386,7 @@
         <v>14749.01536</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>9007.21487</v>
+        <v>9007.214870000002</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>21915.28855</v>
@@ -2788,14 +2398,19 @@
         <v>11701.2362</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>21767.6408</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>22848.8336</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>13881.901</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>92.64102</v>
@@ -2830,18 +2445,23 @@
       <c r="M38" s="22" t="n">
         <v>4030.6258</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>11822.518</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
-        <v>978.05183</v>
+        <v>978.0518300000001</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>913.929</v>
+        <v>913.9290000000001</v>
       </c>
       <c r="E39" s="22" t="n">
         <v>2188.70007</v>
@@ -2856,7 +2476,7 @@
         <v>2064.24199</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>7144.389429999999</v>
+        <v>7144.389430000001</v>
       </c>
       <c r="J39" s="21" t="n">
         <v>5069.39201</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>2904.7591</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>2839.131</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>8999.623009999999</v>
@@ -2893,10 +2518,10 @@
         <v>9856.35636</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>13051.55119</v>
+        <v>13148.21498</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>12287.32898</v>
+        <v>12347.3418</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>20382.6235</v>
@@ -2905,17 +2530,22 @@
         <v>46158.24925</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>59218.69053</v>
+        <v>59287.161</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>63869.01781</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>64195.73946000001</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>78564.228</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1454.32393</v>
@@ -2933,10 +2563,10 @@
         <v>2929.90266</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>3831.80172</v>
+        <v>4191.32764</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>3165.11445</v>
+        <v>3881.04064</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>5018.80474</v>
@@ -2948,14 +2578,19 @@
         <v>50119.78819000001</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>37752.73689</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>37760.31087</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>57995.644</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>5364.56569</v>
@@ -3007,19 +2647,19 @@
         <v>6542.80641</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>7952.206630000001</v>
+        <v>7952.20663</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>6182.59248</v>
+        <v>6182.592479999999</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>15241.24645</v>
+        <v>15302.10991</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>15745.24204</v>
+        <v>15815.51804</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>32729.11686</v>
+        <v>33628.76025</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>58821.21067</v>
@@ -3028,14 +2668,19 @@
         <v>126892.05015</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>399786.7268300001</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>146732.88253</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>200722.901</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>3153.45219</v>
@@ -3065,17 +2710,22 @@
         <v>0</v>
       </c>
       <c r="L44" s="23" t="n">
-        <v>51586.16712999999</v>
+        <v>51586.16713</v>
       </c>
       <c r="M44" s="23" t="n">
         <v>1330.8287</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>3183.108</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>3153.45219</v>
@@ -3105,17 +2755,22 @@
         <v>0</v>
       </c>
       <c r="L45" s="22" t="n">
-        <v>51586.16712999999</v>
+        <v>51586.16713</v>
       </c>
       <c r="M45" s="22" t="n">
         <v>1330.8287</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>1263.108</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>1920</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4966.364009999999</v>
@@ -3213,29 +2878,34 @@
         <v>6051.47268</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>5276.63076</v>
+        <v>5423.410900000001</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>8801.43339</v>
+        <v>9008.89344</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>8384.79614</v>
+        <v>8474.362219999999</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>23013.95173</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>43417.47027</v>
+        <v>43477.2654</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>37507.84192</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>40722.77829</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>279451.471</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>4797.24443</v>
@@ -3253,29 +2923,34 @@
         <v>4294.2945</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>4651.63276</v>
+        <v>4798.412899999999</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>7564.49726</v>
+        <v>7724.70552</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>6762.13679</v>
+        <v>6851.702869999999</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>20219.97223</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>32447.98692</v>
+        <v>32507.78205</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>26448.85088</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>26607.34925</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>204793.797</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>169.11958</v>
@@ -3296,7 +2971,7 @@
         <v>624.998</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>1236.93613</v>
+        <v>1284.18792</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>1622.65935</v>
@@ -3308,23 +2983,28 @@
         <v>10969.48335</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>11058.99104</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>14115.42904</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>74657.674</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6388.78902</v>
+        <v>6388.789019999999</v>
       </c>
       <c r="D51" s="46" t="n">
         <v>6043.065009999999</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>9940.52289</v>
+        <v>9940.522889999998</v>
       </c>
       <c r="F51" s="45" t="n">
         <v>11603.13728</v>
@@ -3333,29 +3013,34 @@
         <v>14467.6063</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>25700.77904</v>
+        <v>27268.83271</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>40404.1223</v>
+        <v>41306.17503</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>51712.44781</v>
+        <v>51839.01979</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>71928.71952000001</v>
+        <v>71928.71952</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>292182.6738</v>
+        <v>292229.31013</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>308964.26031</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>309636.64403</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>179191.187</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>3269.44707</v>
@@ -3373,29 +3058,34 @@
         <v>10436.65572</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>20794.76119</v>
+        <v>22337.73006</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>32977.54929</v>
+        <v>33861.05972</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>42407.96993000001</v>
+        <v>42407.96994</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>56497.34858</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>114731.00898</v>
+        <v>114739.52598</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>127191.23952</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>127635.34868</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>137868.621</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>3.81233</v>
@@ -3425,17 +3115,22 @@
         <v>262.67776</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>1170.71165</v>
+        <v>1204.57878</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>663.8482200000001</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>876.3419600000001</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>1126.263</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>1.62283</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>92.18692</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>90.04300000000001</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>1192.35543</v>
@@ -3493,29 +3193,34 @@
         <v>2367.37366</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>2356.94021</v>
+        <v>2365.52775</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>3754.50349</v>
+        <v>3765.54079</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>4106.151940000001</v>
+        <v>4106.80213</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>5249.058970000001</v>
+        <v>5249.058969999999</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>14178.05091</v>
+        <v>14182.30311</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>9487.37075</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>9503.14574</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>12025.793</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1484.46508</v>
@@ -3533,7 +3238,7 @@
         <v>867.1776</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>1321.21467</v>
+        <v>1334.36193</v>
       </c>
       <c r="I56" s="22" t="n">
         <v>1827.3769</v>
@@ -3542,7 +3247,7 @@
         <v>2996.75844</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>4852.99203</v>
+        <v>4852.992029999999</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>4646.13635</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>10332.23144</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>20770.824</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>436.28239</v>
@@ -3567,16 +3277,16 @@
         <v>406.0246</v>
       </c>
       <c r="F57" s="21" t="n">
-        <v>623.5798400000001</v>
+        <v>623.57984</v>
       </c>
       <c r="G57" s="22" t="n">
         <v>624.62508</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>602.0703099999999</v>
+        <v>605.42031</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>892.5955799999999</v>
+        <v>900.1005799999999</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>1309.58023</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>1302.30701</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>2658.363</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>7.000000000000001e-05</v>
@@ -3628,14 +3343,19 @@
         <v>196.42437</v>
       </c>
       <c r="M58" s="22" t="n">
-        <v>118.84444</v>
-      </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+        <v>118.85027</v>
+      </c>
+      <c r="N58" s="22" t="n">
+        <v>118.846</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0.80382</v>
@@ -3656,10 +3376,10 @@
         <v>599.2911</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>711.0429399999999</v>
+        <v>711.0429399999998</v>
       </c>
       <c r="J59" s="21" t="n">
-        <v>452.66099</v>
+        <v>578.58277</v>
       </c>
       <c r="K59" s="22" t="n">
         <v>3729.1892</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>159776.23201</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>4532.434</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>103534.67061</v>
@@ -3729,38 +3459,43 @@
         <v>193883.42556</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>206096.9757299999</v>
+        <v>206096.97573</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>309400.95228</v>
+        <v>324777.77316</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>408323.05309</v>
+        <v>422153.03564</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>486448.04132</v>
+        <v>488751.52208</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>557315.37977</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1237090.89149</v>
+        <v>1237189.7325</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>1518387.11199</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>1520605.25669</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1962755.903</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>398.0462199999999</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>643.86578</v>
+        <v>643.8657799999999</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>770.18076</v>
@@ -3772,13 +3507,13 @@
         <v>2313.84978</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>2834.71383</v>
+        <v>2835.67383</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>11138.9244</v>
+        <v>11139.8844</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>2567.60548</v>
+        <v>2573.2565</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>2236.29189</v>
@@ -3787,14 +3522,19 @@
         <v>2631.97451</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>58076.64459000001</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>58076.64459</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>61281.149</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>55202.78640999999</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>55193.984</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>312.81347</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>2524.741</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>398.0462199999999</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>502.2657799999999</v>
+        <v>502.26578</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>768.94452</v>
@@ -3972,13 +3732,13 @@
         <v>1027.92054</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>1034.59722</v>
+        <v>1035.55722</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>1135.52283</v>
+        <v>1136.48283</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>1679.92702</v>
+        <v>1685.57804</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>1274.33334</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>2561.04471</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>3562.424</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,15 +3794,20 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
-        <v>6412.98432</v>
+        <v>6412.984320000001</v>
       </c>
       <c r="D69" s="36" t="n">
         <v>6549.91474</v>
@@ -4055,26 +3825,31 @@
         <v>2912.797849999999</v>
       </c>
       <c r="I69" s="36" t="n">
-        <v>2560.02602</v>
+        <v>2566.37989</v>
       </c>
       <c r="J69" s="37" t="n">
         <v>4112.14049</v>
       </c>
       <c r="K69" s="36" t="n">
-        <v>4142.521369999999</v>
+        <v>4142.52137</v>
       </c>
       <c r="L69" s="36" t="n">
         <v>9363.182570000001</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>54468.22828</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>54471.76828</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>24982.828</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>485.93691</v>
@@ -4089,7 +3864,7 @@
         <v>67.67149000000001</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>363.8767599999999</v>
+        <v>363.87676</v>
       </c>
       <c r="H70" s="21" t="n">
         <v>1014.35228</v>
@@ -4107,14 +3882,19 @@
         <v>7094.37367</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>2661.07223</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>2664.61223</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>3123.95</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>4792.36411</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>1505</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>420</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>801.1415500000001</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>41553.53126</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>12699.298</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>10.32</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>333.54175</v>
@@ -4255,7 +4050,7 @@
         <v>1894.04432</v>
       </c>
       <c r="I74" s="22" t="n">
-        <v>1171.88849</v>
+        <v>1178.24236</v>
       </c>
       <c r="J74" s="21" t="n">
         <v>161.44098</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>8738.30479</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>8739.294</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>10558.7771</v>
@@ -4378,23 +4188,28 @@
         <v>29563.71501</v>
       </c>
       <c r="J77" s="33" t="n">
-        <v>43602.22023000001</v>
+        <v>43602.22023</v>
       </c>
       <c r="K77" s="23" t="n">
         <v>43437.34908</v>
       </c>
       <c r="L77" s="23" t="n">
-        <v>89101.87978999999</v>
+        <v>89101.87979000001</v>
       </c>
       <c r="M77" s="23" t="n">
         <v>101813.87591</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>161828.723</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0.005</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>2.5</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,15 +4289,20 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
-        <v>9235.67369</v>
+        <v>9235.673690000001</v>
       </c>
       <c r="D80" s="22" t="n">
         <v>9334.572840000001</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>27450.30594</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>30242.353</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>95</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>70.625</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>89.375</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>1467.99841</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>74602.69497</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>178800.245</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>49.9</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>171</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>47127</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,18 +4649,23 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>70414.07330999999</v>
+        <v>70414.07331000001</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>85574.37470999997</v>
+        <v>85574.37471</v>
       </c>
       <c r="E88" s="23" t="n">
         <v>107789.56283</v>
@@ -4812,29 +4677,34 @@
         <v>116103.89496</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>205946.58253</v>
+        <v>208223.86587</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>272150.50741</v>
+        <v>274147.52114</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>313534.06986</v>
+        <v>315253.39114</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>324407.15356</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>795715.27617</v>
+        <v>795803.93669</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>892548.8326900001</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>892791.1181900001</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1126988.927</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>912.84398</v>
@@ -4849,7 +4719,7 @@
         <v>12965.17231</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>3454.94573</v>
+        <v>3454.945729999999</v>
       </c>
       <c r="H89" s="21" t="n">
         <v>3803.61133</v>
@@ -4858,7 +4728,7 @@
         <v>52938.58192</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>52482.60486</v>
+        <v>52560.35506</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>62396.66537</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>81840.27392000001</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>81760.66800000001</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>61.31482</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>1307.16163</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>1169.979</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>12575.25504</v>
@@ -4944,23 +4824,28 @@
         <v>126973.30071</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>155268.84414</v>
+        <v>155286.34414</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>340460.14825</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>340477.64825</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>340502.994</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>55162.53301</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>64018.71520999999</v>
+        <v>64018.71521000001</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>68296.05783000001</v>
@@ -4969,16 +4854,16 @@
         <v>69173.66420999999</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>81686.69517000001</v>
+        <v>81686.69517000002</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>82363.27299000001</v>
+        <v>84333.32414999999</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>111667.0081</v>
+        <v>113705.96744</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>132786.27972</v>
+        <v>132804.01922</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>187265.59863</v>
@@ -4987,20 +4872,25 @@
         <v>190653.30052</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>256998.88554</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>256966.95474</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>411902.185</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>8432.037859999999</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>9325.793369999999</v>
+        <v>9325.793370000001</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>11357.64845</v>
@@ -5012,13 +4902,13 @@
         <v>14668.49833</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>15846.25467</v>
+        <v>15950.6983</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>21033.37709</v>
+        <v>21070.79254</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>22755.87166</v>
+        <v>22815.02419</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>23674.50245</v>
@@ -5027,14 +4917,19 @@
         <v>31127.8988</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>39681.06419</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>39788.61099</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>57980.856</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>30319.11993</v>
@@ -5052,29 +4947,34 @@
         <v>57142.68368</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>63430.85851000001</v>
+        <v>64355.77089</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>75211.48934999999</v>
+        <v>76140.00811</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>91204.87671</v>
+        <v>93097.19905000001</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>105004.50509</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>300585.64318</v>
+        <v>300720.67525</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>338854.3051699999</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>339213.4623</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>454676.995</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>3405.17998</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>3594.96854</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>7635.811</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>60725.06716999999</v>
+        <v>60725.06717</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>70591.54863</v>
+        <v>70591.54862999999</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>80099.21174000001</v>
@@ -5132,29 +5037,34 @@
         <v>105612.21836</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>116140.39824</v>
+        <v>116862.52207</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>138855.52828</v>
+        <v>139863.4081</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>175591.21206</v>
+        <v>176648.82556</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>199746.44115</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>343197.52112</v>
+        <v>343261.3926700001</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>402310.52754</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>402520.51517</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>542849.012</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>15010.97051</v>
@@ -5178,7 +5088,7 @@
         <v>20493.3203</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>48542.57782</v>
+        <v>49272.54803</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>12127.24833</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>227397.4285</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>302660.636</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>5259.88535</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>4725.12449</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>11547.815</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>13272.39231</v>
@@ -5252,29 +5172,34 @@
         <v>60699.97001</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>69302.61045000001</v>
+        <v>82399.48023999999</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>83741.10542000001</v>
+        <v>95565.18156</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>100187.4952</v>
+        <v>100766.00366</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>153201.43956</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>292074.16113</v>
+        <v>292084.04493</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>361676.86025</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>363708.33043</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>511050.113</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>32661.68858</v>
@@ -5286,19 +5211,19 @@
         <v>50604.28415</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>67657.73930999999</v>
+        <v>67657.73931</v>
       </c>
       <c r="G100" s="22" t="n">
         <v>106953.60898</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>130287.24042</v>
+        <v>130304.77442</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>157964.97502</v>
+        <v>157982.50902</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>162719.28254</v>
+        <v>163815.46108</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>237216.68831</v>
@@ -5307,14 +5232,19 @@
         <v>313760.36225</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>430106.63326</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>430107.47825</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>545440.627</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>2423.75756</v>
@@ -5332,10 +5262,10 @@
         <v>5584.133609999999</v>
       </c>
       <c r="H101" s="21" t="n">
-        <v>304.81643</v>
+        <v>14481.26121</v>
       </c>
       <c r="I101" s="22" t="n">
-        <v>329.66142</v>
+        <v>14506.1062</v>
       </c>
       <c r="J101" s="21" t="n">
         <v>14671.92407</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>23153.07318</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>55498.08</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>3899.92061</v>
@@ -5366,35 +5301,40 @@
         <v>3917.05571</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>3914.879129999999</v>
+        <v>3914.87913</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>4049.39079</v>
+        <v>4049.390789999999</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>4104.28276</v>
+        <v>4106.73931</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>4458.28276</v>
+        <v>4462.850130000001</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>4663.67353</v>
+        <v>4663.673529999999</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>4685.76433</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>4859.62702</v>
+        <v>4864.91681</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>4881.62774</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>4894.74415</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>3394.091</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>27.78128</v>
@@ -5409,7 +5349,7 @@
         <v>84.40718</v>
       </c>
       <c r="G103" s="22" t="n">
-        <v>865.43485</v>
+        <v>865.4348500000001</v>
       </c>
       <c r="H103" s="21" t="n">
         <v>5137.44593</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>186523.92778</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>265318.074</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>5243.48677</v>
@@ -5452,29 +5397,34 @@
         <v>15775.02122</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>19804.41321</v>
+        <v>20960.90315</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>25532.29651</v>
+        <v>26688.95345</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>29890.65568</v>
+        <v>29899.67854</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>38354.36923</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>86907.01721999999</v>
+        <v>86911.96295</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>99483.34328999999</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>99491.67885</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>172777.832</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>8772.471250000001</v>
@@ -5492,13 +5442,13 @@
         <v>20146.91302</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>22355.9207</v>
+        <v>22581.67363</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>23032.44705</v>
+        <v>23258.19998</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>26636.73599</v>
+        <v>26693.94549</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>27428.60111</v>
@@ -5507,54 +5457,64 @@
         <v>72401.98334000001</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>80735.98271</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>80746.29515000001</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>113281.433</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>39845.8585</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>44314.32387</v>
+        <v>44314.32387000001</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>54044.16082</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>66496.48393</v>
+        <v>66496.48392999999</v>
       </c>
       <c r="G106" s="22" t="n">
         <v>92808.79909999999</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>112792.947</v>
+        <v>115274.75541</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>137004.04573</v>
+        <v>140760.92561</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>156043.30653</v>
+        <v>156627.20897</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>198444.43362</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>355023.48785</v>
+        <v>355023.83957</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>464054.46585</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>462055.60507</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>644795.5820000001</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>89.14475999999999</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>846.73814</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>135.558</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>2249.89183</v>
@@ -5846,35 +5841,40 @@
         <v>3316.87888</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>6584.32188</v>
+        <v>6584.321879999999</v>
       </c>
       <c r="G114" s="23" t="n">
         <v>3137.95824</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>6130.83192</v>
+        <v>6132.53967</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>6077.059029999999</v>
+        <v>6078.637839999999</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>7633.52406</v>
+        <v>7633.524060000001</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>21978.0314</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>27824.97499</v>
+        <v>27825.27168</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>29987.96518</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>29928.8142</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>57570.963</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>2249.89183</v>
@@ -5892,10 +5892,10 @@
         <v>3137.95824</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>6130.83192</v>
+        <v>6132.53967</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>6072.85417</v>
+        <v>6074.43298</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>7606.564189999999</v>
@@ -5904,17 +5904,22 @@
         <v>21951.07159</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>27811.136</v>
+        <v>27811.43269000001</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>29949.17136</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>29890.02038</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>57570.963</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>38.79382</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>228.50552</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>19814.70509</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>19048.2</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>5.41995</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>4.756810000000001</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>468.769</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>2.14664</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>5.5128</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>217.57277</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>301.11528</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>301.115</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>4329.9887</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>4330.334</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>9.84577</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6338,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="21" t="n">
-        <v>9662.066939999999</v>
+        <v>9662.066940000001</v>
       </c>
       <c r="K126" s="22" t="n">
         <v>3037.05998</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>15186.54343</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>13945.835</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>254614.5938</v>
@@ -6372,26 +6432,29 @@
         <v>541419.29967</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>723016.10886</v>
+        <v>743737.4798599998</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>921585.94783</v>
+        <v>944179.12474</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1192056.81585</v>
+        <v>1196007.38461</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1431010.58043</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>3424190.98051</v>
+        <v>3425105.23362</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>4564705.19396</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>4327047.92145</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>6009658.188</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>631-Data processing, hosting and related activities; web portals</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>127692.84315</v>
@@ -6504,29 +6581,34 @@
         <v>234341.54824</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>294152.79081</v>
+        <v>310169.02066</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>379852.1284400001</v>
+        <v>398500.28402</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>531622.5668499999</v>
+        <v>533038.86835</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>715333.0160599999</v>
+        <v>715333.0160600001</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1462891.94559</v>
+        <v>1463730.0526</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1848958.93241</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1607188.96881</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>2399032.91</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>21761.9159</v>
@@ -6544,35 +6626,40 @@
         <v>35211.78312</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>41576.78892</v>
+        <v>41749.47351</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>65647.00276</v>
+        <v>66168.50962</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>46753.97536</v>
+        <v>47066.84173000001</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>68528.97912</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>90946.07096</v>
+        <v>90990.84696</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>80401.21004999999</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>80457.09646</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>190269.678</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>21612.21885</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>9447.122460000001</v>
+        <v>9447.122459999999</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>13646.27414</v>
@@ -6584,29 +6671,34 @@
         <v>30146.56477</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>36992.30801000001</v>
+        <v>37164.99260000001</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>63426.02235</v>
+        <v>63947.52921</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>42776.86618</v>
+        <v>42824.57976</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>62510.82866000001</v>
+        <v>62510.82866</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>84889.58624999999</v>
+        <v>84934.36225000001</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>70280.48616</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>70253.15181</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>177350.347</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>45.01403</v>
@@ -6624,13 +6716,13 @@
         <v>4757.52525</v>
       </c>
       <c r="H135" s="21" t="n">
-        <v>3712.210230000001</v>
+        <v>3712.21023</v>
       </c>
       <c r="I135" s="22" t="n">
         <v>636.19302</v>
       </c>
       <c r="J135" s="21" t="n">
-        <v>359.20203</v>
+        <v>666.15656</v>
       </c>
       <c r="K135" s="22" t="n">
         <v>2054.29122</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>3606.29295</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>3121.555</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>3.34132</v>
@@ -6670,7 +6767,7 @@
         <v>141.87849</v>
       </c>
       <c r="J136" s="21" t="n">
-        <v>19.63704</v>
+        <v>61.43878</v>
       </c>
       <c r="K136" s="22" t="n">
         <v>296.30338</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>598.24158</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>556.218</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>9.281129999999999</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>1330.73549</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>5811.481</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>98.74320999999999</v>
@@ -6913,29 +7040,34 @@
         <v>2794.20899</v>
       </c>
       <c r="K142" s="22" t="n">
-        <v>3033.76194</v>
+        <v>3033.761939999999</v>
       </c>
       <c r="L142" s="22" t="n">
         <v>3253.18064</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>5781.937029999999</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>5865.15779</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>4514.873</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>50928.92112000001</v>
+        <v>50928.92112</v>
       </c>
       <c r="D143" s="46" t="n">
         <v>51035.68607</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>64558.36126</v>
+        <v>64558.36126000001</v>
       </c>
       <c r="F143" s="45" t="n">
         <v>78199.71971999999</v>
@@ -6944,29 +7076,34 @@
         <v>97019.66177999999</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>130230.21761</v>
+        <v>131191.92264</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>153860.25689</v>
+        <v>157059.61595</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>222094.89587</v>
+        <v>222654.65347</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>283141.41966</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>759785.0341300002</v>
+        <v>760038.54694</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>866736.1110899999</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>870261.8165599999</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1258123.798</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>40850.13861</v>
@@ -6984,32 +7121,37 @@
         <v>88047.08119</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>118817.74433</v>
+        <v>119779.08741</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>138439.21147</v>
+        <v>141578.64687</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>189190.1282</v>
+        <v>189740.13802</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>232655.67038</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>654512.5251600001</v>
+        <v>654764.32903</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>714368.2655699999</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>717092.79964</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>1014269.472</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>7834.85465</v>
+        <v>7834.854649999999</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>3898.49421</v>
@@ -7021,32 +7163,37 @@
         <v>5088.866980000001</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>4392.181030000001</v>
+        <v>4392.18103</v>
       </c>
       <c r="H145" s="24" t="n">
         <v>8137.30067</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>9995.330950000001</v>
+        <v>9995.33095</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>17550.57386</v>
+        <v>17560.32164</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>31360.37376</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>40141.65895</v>
+        <v>40141.87789</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>58495.85637</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>59263.26837000001</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>92988.61</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>33.70486999999999</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>1909.09728</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>2156.016</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>2210.22299</v>
@@ -7138,16 +7295,16 @@
         <v>1989.83058</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>4047.56737</v>
+        <v>4047.567370000001</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>4550.70634</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>3247.4086</v>
+        <v>3247.77055</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>5395.12692</v>
+        <v>5455.05058</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>15311.09959</v>
@@ -7156,57 +7313,67 @@
         <v>19087.31034</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>62989.31828</v>
+        <v>62990.80828</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>91962.89187000001</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>91996.65127000002</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>148709.7</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>36154.78607</v>
       </c>
       <c r="D149" s="23" t="n">
-        <v>39945.07376000001</v>
+        <v>39945.07376</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>38291.35112</v>
+        <v>38291.35112000001</v>
       </c>
       <c r="F149" s="33" t="n">
         <v>41262.77262</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>45521.04006</v>
+        <v>45521.04005999999</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>50589.37832999999</v>
+        <v>65157.13653</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>67098.15845999999</v>
+        <v>81615.07287</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>137577.95218</v>
+        <v>137588.65272</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>168211.81379</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>190333.49116</v>
+        <v>190678.97862</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>258182.10165</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>264380.20316</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>295156.327</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>28814.04651</v>
@@ -7224,10 +7391,10 @@
         <v>34705.82953</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>37801.61450000001</v>
+        <v>52348.23465000001</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>48952.94547999999</v>
+        <v>62426.40163</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>85477.57922</v>
@@ -7236,17 +7403,22 @@
         <v>141481.55656</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>141515.55396</v>
+        <v>141854.09482</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>205329.7019</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>211273.00657</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>213582.558</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>29.34992</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>5324.629</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>1092.06618</v>
@@ -7316,23 +7493,28 @@
         <v>3382.62616</v>
       </c>
       <c r="L152" s="22" t="n">
-        <v>5200.03609</v>
+        <v>5200.036090000001</v>
       </c>
       <c r="M152" s="22" t="n">
         <v>2891.03975</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>1707.368</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>3689.56262</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>4238.7843</v>
+        <v>4238.784300000001</v>
       </c>
       <c r="E153" s="22" t="n">
         <v>5403.90616</v>
@@ -7344,50 +7526,55 @@
         <v>4889.38541</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>6415.060499999999</v>
+        <v>6436.198550000001</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>8692.794809999999</v>
+        <v>8692.798560000001</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>10745.50943</v>
+        <v>10756.20997</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>12930.64064</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>27458.35678</v>
+        <v>27463.62734</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>25603.59107</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>25760.06437</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>31617.694</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>2559.11076</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>4266.638869999999</v>
+        <v>4266.63887</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>4413.915289999999</v>
+        <v>4413.91529</v>
       </c>
       <c r="F154" s="21" t="n">
-        <v>6322.829769999999</v>
+        <v>6322.82977</v>
       </c>
       <c r="G154" s="22" t="n">
         <v>5008.82953</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>6060.897240000001</v>
+        <v>6060.89724</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>8266.341630000001</v>
+        <v>9309.79614</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>12323.43528</v>
@@ -7396,17 +7583,22 @@
         <v>10416.99043</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>16130.19441</v>
+        <v>16131.87045</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>24328.41901</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>24426.74255</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>42924.078</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>1973.34963</v>
@@ -7464,13 +7661,13 @@
         <v>18499.77073</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>17298.49838</v>
+        <v>17310.8997</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>27370.25254</v>
+        <v>27386.02086</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>45326.90578</v>
+        <v>45326.90579</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>86880.22158</v>
@@ -7479,14 +7676,19 @@
         <v>117755.44567</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>342416.0229</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>88899.51883999999</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>192911.218</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>1890.81456</v>
@@ -7504,13 +7706,13 @@
         <v>17317.95759</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>16885.48341</v>
+        <v>16897.42981</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>26612.61192</v>
+        <v>26627.92532</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>43933.60701</v>
+        <v>43933.60702</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>84700.27735999999</v>
@@ -7519,14 +7721,19 @@
         <v>100441.57581</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>318106.07342</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>64589.56936000001</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>165125.667</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>82.53507</v>
@@ -7538,16 +7745,16 @@
         <v>440.09743</v>
       </c>
       <c r="F158" s="21" t="n">
-        <v>641.5284199999999</v>
+        <v>641.5284200000001</v>
       </c>
       <c r="G158" s="22" t="n">
         <v>1181.81314</v>
       </c>
       <c r="H158" s="21" t="n">
-        <v>413.01497</v>
+        <v>413.46989</v>
       </c>
       <c r="I158" s="22" t="n">
-        <v>757.64062</v>
+        <v>758.0955399999999</v>
       </c>
       <c r="J158" s="21" t="n">
         <v>1393.29877</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>24309.94948</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>27785.551</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>2421.5788</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>2421.5788</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>11403.91687</v>
@@ -7704,29 +7931,34 @@
         <v>24561.98477</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>32565.67663</v>
+        <v>32821.51764</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>38333.45828</v>
+        <v>38638.87674</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>51437.86276999999</v>
+        <v>51925.52288</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>67991.25442</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>144715.42923</v>
+        <v>144836.7037</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>170870.62164</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>172233.578</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>240946.98</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>5635.61632</v>
@@ -7744,29 +7976,34 @@
         <v>11873.70849</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>17847.52684</v>
+        <v>18005.96335</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>23279.42362</v>
+        <v>23515.32671</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>24951.50959</v>
+        <v>25374.35548</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>36996.61491</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>101700.21941</v>
+        <v>101760.13577</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>118102.154</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>118563.14782</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>172409.607</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2494.99062</v>
@@ -7775,7 +8012,7 @@
         <v>3995.36366</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>5417.73506</v>
+        <v>5417.735060000001</v>
       </c>
       <c r="F164" s="21" t="n">
         <v>4065.58603</v>
@@ -7784,29 +8021,34 @@
         <v>5746.99508</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>5937.51812</v>
+        <v>6034.92262</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>7336.14032</v>
+        <v>7405.65569</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>11391.15374</v>
+        <v>11416.89119</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>16210.25564</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>23186.93173</v>
+        <v>23235.69399</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>30446.8668</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>30780.11961</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>33964.776</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>3246.5239</v>
@@ -7827,26 +8069,31 @@
         <v>8674.24575</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>7713.149380000001</v>
+        <v>7713.149379999999</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>15064.25983</v>
+        <v>15103.3366</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>14685.94331</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>19514.33301</v>
+        <v>19526.92886</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>21357.86795</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>21918.00468</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>31095.308</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>26.78603</v>
@@ -7879,14 +8126,19 @@
         <v>313.94508</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>963.73289</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>972.30589</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>3477.289</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1121.27185</v>
@@ -7907,26 +8159,31 @@
         <v>3714.48386</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>5970.518709999999</v>
+        <v>6021.57416</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>6699.27557</v>
+        <v>6744.592439999999</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>7911.4625</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>27775.57133</v>
+        <v>27808.52326</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>40582.59895</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>40840.63933</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>45607.038</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>4548.285910000001</v>
@@ -7941,32 +8198,37 @@
         <v>8258.54722</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>7469.35371</v>
+        <v>7469.353709999999</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>9827.179340000001</v>
+        <v>9840.45962</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>12262.95329</v>
+        <v>12310.99138</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>12771.59688</v>
+        <v>12875.15189</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>19188.0689</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>150459.93264</v>
+        <v>150494.35818</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>221809.08937</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>222153.14725</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>275585.528</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>3476.10114</v>
@@ -7978,35 +8240,40 @@
         <v>5174.05532</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>6268.376439999999</v>
+        <v>6268.37644</v>
       </c>
       <c r="G169" s="22" t="n">
         <v>5016.203860000001</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>6809.75537</v>
+        <v>6823.035650000001</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>7208.89676</v>
+        <v>7205.8794</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>6755.339349999999</v>
+        <v>6813.577490000001</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>12214.34015</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>130035.90786</v>
+        <v>130037.38147</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>190966.72827</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>191058.00466</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>247411.45</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>824.35901</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>486.325</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>31.09478</v>
@@ -8076,17 +8348,22 @@
         <v>407.69098</v>
       </c>
       <c r="L171" s="22" t="n">
-        <v>4339.739640000001</v>
+        <v>4339.73964</v>
       </c>
       <c r="M171" s="22" t="n">
-        <v>7776.71794</v>
-      </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+        <v>7781.976830000001</v>
+      </c>
+      <c r="N171" s="22" t="n">
+        <v>15380.676</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>17.9923</v>
@@ -8121,18 +8398,23 @@
       <c r="M172" s="22" t="n">
         <v>1139.1609</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>1565.959</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>1926.40204</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>4320.4727</v>
+        <v>4320.472699999999</v>
       </c>
       <c r="E173" s="23" t="n">
         <v>3834.84944</v>
@@ -8144,29 +8426,34 @@
         <v>10650.04894</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>17695.51216</v>
+        <v>17741.35186</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>20761.91412</v>
+        <v>20800.04714</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>21312.15849</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>32155.82841</v>
+        <v>32155.82840999999</v>
       </c>
       <c r="L173" s="23" t="n">
         <v>80207.43191</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>89075.76862999999</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>89104.24747</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>174524.283</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>1499.85601</v>
@@ -8178,13 +8465,13 @@
         <v>2652.76423</v>
       </c>
       <c r="F174" s="21" t="n">
-        <v>5551.545510000001</v>
+        <v>5551.54551</v>
       </c>
       <c r="G174" s="22" t="n">
-        <v>8051.174059999999</v>
+        <v>8051.17406</v>
       </c>
       <c r="H174" s="21" t="n">
-        <v>14942.83445</v>
+        <v>14983.19611</v>
       </c>
       <c r="I174" s="22" t="n">
         <v>14937.81333</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>23775.9524</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>52724.222</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>426.54603</v>
@@ -8224,10 +8516,10 @@
         <v>2598.87488</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>2752.67771</v>
+        <v>2758.15575</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>5824.10079</v>
+        <v>5862.23381</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>10369.48008</v>
@@ -8236,17 +8528,22 @@
         <v>10883.19332</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>39462.65197</v>
+        <v>39462.65196999999</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>65299.81623</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>65328.29507</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>121800.061</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0.70087</v>
@@ -8273,20 +8570,25 @@
         <v>419.54083</v>
       </c>
       <c r="K176" s="23" t="n">
-        <v>512.03658</v>
+        <v>512.0365800000001</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>378.76544</v>
+        <v>418.86978</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>694.4974999999999</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>1011.86899</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>1493.588</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0.01602</v>
@@ -8316,17 +8618,22 @@
         <v>185.53544</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>378.7653</v>
+        <v>418.86964</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>694.4974999999999</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>964.1314699999999</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>1409.744</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.68485</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>51.387</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8399,14 +8711,19 @@
         <v>0.00012</v>
       </c>
       <c r="M179" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+        <v>47.73751</v>
+      </c>
+      <c r="N179" s="22" t="n">
+        <v>32.457</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8439,14 +8756,19 @@
         <v>1e-05</v>
       </c>
       <c r="M180" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+        <v>1e-05</v>
+      </c>
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>18563.4578</v>
@@ -8504,13 +8831,13 @@
         <v>81576.10519</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>83029.37389000002</v>
+        <v>83508.46265</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>114131.13835</v>
+        <v>114363.98402</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>119981.77407</v>
+        <v>120226.7587</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>161928.46123</v>
@@ -8519,14 +8846,19 @@
         <v>441150.0900200001</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>744154.11149</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>745633.80591</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>879726.407</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>2855.89476</v>
@@ -8544,29 +8876,34 @@
         <v>36072.98559</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>27230.30888</v>
+        <v>27709.39764</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>51453.15533</v>
+        <v>51686.001</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>43768.57658</v>
+        <v>44013.56121</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>64300.15633</v>
+        <v>64300.15633000001</v>
       </c>
       <c r="L183" s="23" t="n">
         <v>226812.61888</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>393006.87057</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>392978.00838</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>521016.498</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>2788.08107</v>
@@ -8584,10 +8921,10 @@
         <v>26065.46162</v>
       </c>
       <c r="H184" s="21" t="n">
-        <v>15742.9399</v>
+        <v>16222.02866</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>35118.42049</v>
+        <v>35351.26616</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>29277.4499</v>
@@ -8599,17 +8936,22 @@
         <v>207873.07126</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>376041.69282</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>376012.83063</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>504129.886</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
-        <v>71.92271000000002</v>
+        <v>71.92271</v>
       </c>
       <c r="D185" s="22" t="n">
         <v>2240.26512</v>
@@ -8630,7 +8972,7 @@
         <v>17324.51238</v>
       </c>
       <c r="J185" s="21" t="n">
-        <v>16040.23329</v>
+        <v>16320.17166</v>
       </c>
       <c r="K185" s="22" t="n">
         <v>21001.16973</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>21334.39806</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>20822.766</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>4.10902</v>
@@ -8661,7 +9008,7 @@
         <v>669.92528</v>
       </c>
       <c r="G186" s="22" t="n">
-        <v>726.9939099999999</v>
+        <v>726.99391</v>
       </c>
       <c r="H186" s="21" t="n">
         <v>895.11103</v>
@@ -8670,7 +9017,7 @@
         <v>1079.14422</v>
       </c>
       <c r="J186" s="21" t="n">
-        <v>1633.78495</v>
+        <v>1668.73869</v>
       </c>
       <c r="K186" s="22" t="n">
         <v>3572.89419</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>4781.49572</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>3936.154</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>412.27541</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>412.27541</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>412.27541</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>79.68137</v>
@@ -8879,14 +9251,19 @@
         <v>25295.74234</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>78690.57618999999</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>78690.5762</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>76062.436</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>64.63405999999999</v>
@@ -8919,14 +9296,19 @@
         <v>1564.72498</v>
       </c>
       <c r="M192" s="22" t="n">
-        <v>37389.3394</v>
-      </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+        <v>37389.33941</v>
+      </c>
+      <c r="N192" s="22" t="n">
+        <v>43750.173</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>13020.65797</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>301.315</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>15.04731</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>730.38554</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>260.322</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>27550.19328</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>31750.626</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>4609.52498</v>
@@ -9116,20 +9518,25 @@
         <v>25657.23726</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>98707.04030999998</v>
+        <v>98707.04031</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>170197.9249</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>171706.4815</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>148615.4</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
-        <v>4604.358850000001</v>
+        <v>4604.35885</v>
       </c>
       <c r="D198" s="22" t="n">
         <v>4537.74301</v>
@@ -9159,14 +9566,19 @@
         <v>92124.43003999999</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>167178.24525</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>168686.80185</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>136696.818</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>3.634</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>478.81159</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>478.812</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>1.53213</v>
@@ -9350,23 +9782,28 @@
         <v>28.10195</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>2668.633440000001</v>
+        <v>2668.63344</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>2444.85994</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>6582.610269999999</v>
+        <v>6582.61027</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>2540.86806</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>11439.77</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>54.05284</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>673.12473</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>54.05284</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>673.12473</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>831.32571</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>10376.8539</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>8509.101000000001</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>831.32571</v>
@@ -9550,7 +10007,7 @@
         <v>2178.81293</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>2865.37533</v>
+        <v>2865.375329999999</v>
       </c>
       <c r="K208" s="22" t="n">
         <v>2840.37968</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>10376.8539</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>8506.627</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>10132.97814</v>
@@ -9627,7 +10094,7 @@
         <v>33583.52681</v>
       </c>
       <c r="I210" s="23" t="n">
-        <v>40690.35803999999</v>
+        <v>40690.35804</v>
       </c>
       <c r="J210" s="33" t="n">
         <v>46821.00962</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>91208.76120000001</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>125519.428</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>10131.47169</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>89892.73613999999</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>122322.862</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>1.50645</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>1316.02506</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>3196.566</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>108358.29285</v>
@@ -9904,35 +10406,40 @@
         <v>225501.64624</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>345833.94416</v>
+        <v>350059.99655</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>427602.6810399999</v>
+        <v>431314.8567</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>540452.47493</v>
+        <v>542741.7575599999</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>553749.10314</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>1520148.9449</v>
+        <v>1520225.091</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>1971592.15006</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>1974225.14673</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>2730898.871</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>92509.35597</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>97658.73912</v>
+        <v>97658.73911999998</v>
       </c>
       <c r="E218" s="23" t="n">
         <v>116608.78397</v>
@@ -9944,29 +10451,34 @@
         <v>172426.42892</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>303965.81229</v>
+        <v>312507.56562</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>391961.75621</v>
+        <v>401043.3429400001</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>554006.1673399999</v>
+        <v>554537.40474</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>647806.60344</v>
+        <v>647806.6034400001</v>
       </c>
       <c r="L218" s="23" t="n">
         <v>935715.8548099999</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>1110135.4705</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>1110547.71709</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>1410511.252</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>86452.72643</v>
@@ -9984,29 +10496,34 @@
         <v>171318.99827</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>301874.2721</v>
+        <v>310479.9221</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>393753.17411</v>
+        <v>402828.82411</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>551071.2031</v>
+        <v>551602.4405</v>
       </c>
       <c r="K219" s="22" t="n">
-        <v>654554.96711</v>
+        <v>654554.9671099999</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>941730.4784499999</v>
+        <v>942335.4784500001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>1131776.94834</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>1134441.94834</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>1444887.919</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>7931.46167</v>
@@ -10015,38 +10532,43 @@
         <v>9369.302629999998</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>8798.257909999998</v>
+        <v>8798.25791</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>6131.654540000001</v>
+        <v>6131.65454</v>
       </c>
       <c r="G220" s="22" t="n">
         <v>10507.94872</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>9066.36527</v>
+        <v>9139.36527</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>11248.33372</v>
+        <v>11251.50032</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>7639.619680000001</v>
+        <v>7639.61968</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>17268.80803</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>16169.32999</v>
+        <v>16774.32999</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>29359.53776</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>31612.29117</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>41835.815</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>14007.64073</v>
@@ -10064,10 +10586,10 @@
         <v>11615.48653</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>11170.51262</v>
+        <v>11179.61595</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>9457.02298</v>
+        <v>9466.12631</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>10574.69108</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>7718.16708</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>7459.255</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>19.54952</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0.10716</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>17823.57144</v>
@@ -10159,14 +10691,19 @@
         <v>155627.90123</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>243758.00037</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>244659.46531</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>295782.465</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>15855.73686</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>139055.81689</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>190706.435</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>40.10225</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>272.17509</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>33.107</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>532</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>532</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>3367.23</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>3367.23</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>1927.73233</v>
@@ -10439,23 +11006,28 @@
         <v>96282.95912999999</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>100530.77839</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>101432.24333</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>101143.693</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>43368.84705</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>52858.31039000001</v>
+        <v>52858.31039</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>63089.44687000001</v>
+        <v>63089.44687</v>
       </c>
       <c r="F231" s="33" t="n">
         <v>67190.04118</v>
@@ -10464,29 +11036,34 @@
         <v>72351.45935999999</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>75659.27677</v>
+        <v>75673.81095</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>79464.10109</v>
+        <v>79473.87029000001</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>85606.9215</v>
+        <v>85660.24231999999</v>
       </c>
       <c r="K231" s="23" t="n">
-        <v>93660.95061999999</v>
+        <v>93660.95062</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>188602.03699</v>
+        <v>188606.42397</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>266111.61069</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>267224.15149</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>282515.272</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>1886.36309</v>
@@ -10504,29 +11081,34 @@
         <v>6532.79974</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>5634.93014</v>
+        <v>5643.88928</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>6368.49622</v>
+        <v>6378.26542</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>7915.981240000001</v>
+        <v>7969.302060000001</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>9421.762799999999</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>52735.01634</v>
+        <v>52735.01633999999</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>69189.85176000001</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>69192.71086000001</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>81942.689</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>159.30932</v>
@@ -10553,7 +11135,7 @@
         <v>111.55111</v>
       </c>
       <c r="K233" s="22" t="n">
-        <v>88.55602000000002</v>
+        <v>88.55602</v>
       </c>
       <c r="L233" s="22" t="n">
         <v>393.48346</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>129.68967</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>114.705</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>36076.264</v>
@@ -10581,10 +11168,10 @@
         <v>55478.00644999999</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>57708.49508000001</v>
+        <v>57708.49508</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>60975.79671</v>
+        <v>60981.37175</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>61511.40946000001</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>160365.31528</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>158421.189</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>315.00429</v>
@@ -10641,15 +11233,20 @@
       <c r="M235" s="22" t="n">
         <v>676.9734100000001</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>1045.841</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
-        <v>4931.906349999999</v>
+        <v>4931.90635</v>
       </c>
       <c r="D236" s="22" t="n">
         <v>5612.64819</v>
@@ -10661,10 +11258,10 @@
         <v>4445.635310000001</v>
       </c>
       <c r="G236" s="22" t="n">
-        <v>7739.18574</v>
+        <v>7739.185739999999</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>8747.807570000001</v>
+        <v>8747.807569999999</v>
       </c>
       <c r="I236" s="22" t="n">
         <v>11459.91439</v>
@@ -10676,17 +11273,22 @@
         <v>15971.0984</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>29689.57257</v>
+        <v>29693.95955</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>35749.78057</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>36859.46227</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>40990.848</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>19870.11895</v>
@@ -10701,38 +11303,43 @@
         <v>49579.62271</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>55231.05149</v>
+        <v>55231.05149000001</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>73686.554</v>
+        <v>74007.91310999999</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>100953.02571</v>
+        <v>101467.87617</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>134140.93024</v>
+        <v>135660.81321</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>151734.30664</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>223438.75706</v>
+        <v>228414.09639</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>316938.26852</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>317818.54889</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>656617.41</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-79767.66460999999</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-79724.93462999999</v>
+        <v>-79724.93463</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-93317.19763</v>
@@ -10744,75 +11351,85 @@
         <v>-130599.53168</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-173426.70459</v>
+        <v>-176102.83112</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-219161.81254</v>
+        <v>-223933.93867</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-292664.9633</v>
+        <v>-292812.21635</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-381587.79225</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-464123.68851</v>
+        <v>-464210.09488</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-691917.5772099999</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-692801.76615</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-860869.85</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>14554.06405</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>6415.318990000001</v>
+        <v>6415.318990000002</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-2126.257439999999</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>4273.60782</v>
+        <v>4273.607819999998</v>
       </c>
       <c r="G239" s="23" t="n">
         <v>-10569.51141</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-12492.41872</v>
+        <v>-14467.88642</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-26461.88862</v>
+        <v>-27583.79322</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-51971.51253</v>
+        <v>-51639.41804</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-56621.22656</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>480888.0833199999</v>
+        <v>476070.90948</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>726566.3771899999</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>726777.0300999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>946342.322</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>26113.64473</v>
       </c>
       <c r="D240" s="22" t="n">
-        <v>30279.01908999999</v>
+        <v>30279.01909</v>
       </c>
       <c r="E240" s="22" t="n">
         <v>33206.59019</v>
@@ -10824,29 +11441,34 @@
         <v>36136.64978</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>52374.80213</v>
+        <v>52426.30983999999</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>65669.93803</v>
+        <v>65942.80245</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>68957.11945999999</v>
+        <v>69321.63352</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>102786.34377</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>607550.1058400001</v>
+        <v>607704.6166000001</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>930956.17574</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>932809.06407</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>1186732.363</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>11559.58068</v>
@@ -10864,29 +11486,34 @@
         <v>46706.16119</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>64867.22084999999</v>
+        <v>66894.19626</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>92131.82665</v>
+        <v>93526.59566999998</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>120928.63199</v>
+        <v>120961.05156</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>159407.57033</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>126662.02252</v>
+        <v>131633.70712</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>204389.79855</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>206032.03397</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>240390.041</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>254614.5938</v>
@@ -10895,35 +11522,38 @@
         <v>299240.86703</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>386508.4740700001</v>
+        <v>386508.47407</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>453834.7690099999</v>
+        <v>453834.76901</v>
       </c>
       <c r="G242" s="47" t="n">
         <v>541419.2996700001</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>723016.10886</v>
+        <v>743737.47986</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>921585.9478300001</v>
+        <v>944179.12474</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1192056.81585</v>
+        <v>1196007.38461</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1431010.58043</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>3424190.98051</v>
+        <v>3425105.23362</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>4564705.19396</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>4327047.92145</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>6009658.188</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>312</v>
@@ -10960,26 +11593,29 @@
         <v>383</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>615</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>705</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>761</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>899</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>